--- a/data/pnp_csf_features_names_biopy_gravy.xlsx
+++ b/data/pnp_csf_features_names_biopy_gravy.xlsx
@@ -1910,7 +1910,7 @@
         <v>0.04078509711891855</v>
       </c>
       <c r="AO5" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP5" t="n">
         <v>0.663</v>
@@ -2494,7 +2494,7 @@
         <v>0.03064167337399754</v>
       </c>
       <c r="AO7" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AP7" t="n">
         <v>0.747</v>
@@ -3078,7 +3078,7 @@
         <v>0.02959242055449424</v>
       </c>
       <c r="AO9" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP9" t="n">
         <v>0.585</v>
@@ -4538,7 +4538,7 @@
         <v>0.07011956827416337</v>
       </c>
       <c r="AO14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP14" t="n">
         <v>0.849</v>
@@ -5706,7 +5706,7 @@
         <v>0.2233395719591548</v>
       </c>
       <c r="AO18" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP18" t="n">
         <v>0.916</v>
@@ -6874,7 +6874,7 @@
         <v>0.06361070974874176</v>
       </c>
       <c r="AO22" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP22" t="n">
         <v>0.674</v>
@@ -7458,7 +7458,7 @@
         <v>0.1518138885387069</v>
       </c>
       <c r="AO24" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP24" t="n">
         <v>0.999</v>
@@ -8042,7 +8042,7 @@
         <v>0.1030905441180749</v>
       </c>
       <c r="AO26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AP26" t="n">
         <v>0.5629999999999999</v>
@@ -8334,7 +8334,7 @@
         <v>0.09830781315154043</v>
       </c>
       <c r="AO27" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP27" t="n">
         <v>0.998</v>
@@ -8626,7 +8626,7 @@
         <v>0.07445622133222136</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP28" t="n">
         <v>0.849</v>
@@ -8918,7 +8918,7 @@
         <v>0.1304448172535177</v>
       </c>
       <c r="AO29" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP29" t="n">
         <v>1</v>
@@ -9210,7 +9210,7 @@
         <v>0.0596347979557995</v>
       </c>
       <c r="AO30" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP30" t="n">
         <v>0.632</v>
@@ -9502,7 +9502,7 @@
         <v>0.02659981962936744</v>
       </c>
       <c r="AO31" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AP31" t="n">
         <v>0.739</v>
@@ -10378,7 +10378,7 @@
         <v>0.05208638395671105</v>
       </c>
       <c r="AO34" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP34" t="n">
         <v>0.541</v>
@@ -10670,7 +10670,7 @@
         <v>0.08982069607548414</v>
       </c>
       <c r="AO35" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP35" t="n">
         <v>0.548</v>
@@ -10962,7 +10962,7 @@
         <v>0.06870181631287517</v>
       </c>
       <c r="AO36" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AP36" t="n">
         <v>1</v>
@@ -11838,7 +11838,7 @@
         <v>0.2790702184812017</v>
       </c>
       <c r="AO39" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AP39" t="n">
         <v>0.672</v>
@@ -12130,7 +12130,7 @@
         <v>0.1028015632121488</v>
       </c>
       <c r="AO40" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP40" t="n">
         <v>0.9399999999999999</v>
@@ -12422,7 +12422,7 @@
         <v>0.1099795386002851</v>
       </c>
       <c r="AO41" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP41" t="n">
         <v>0.527</v>
@@ -12714,7 +12714,7 @@
         <v>0.3331833477177297</v>
       </c>
       <c r="AO42" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AP42" t="n">
         <v>0.829</v>
@@ -13006,7 +13006,7 @@
         <v>0.1069694824526527</v>
       </c>
       <c r="AO43" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AP43" t="n">
         <v>0.618</v>
@@ -14466,7 +14466,7 @@
         <v>0.05364765663637863</v>
       </c>
       <c r="AO48" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AP48" t="n">
         <v>0.874</v>
@@ -14758,7 +14758,7 @@
         <v>0.05182649508829433</v>
       </c>
       <c r="AO49" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="n">
         <v>0.6840000000000001</v>
@@ -15342,7 +15342,7 @@
         <v>0.126707460168152</v>
       </c>
       <c r="AO51" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP51" t="n">
         <v>0.5620000000000001</v>
@@ -15634,7 +15634,7 @@
         <v>0.1084706315881343</v>
       </c>
       <c r="AO52" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP52" t="n">
         <v>0.642</v>
@@ -15926,7 +15926,7 @@
         <v>0.148726253624383</v>
       </c>
       <c r="AO53" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AP53" t="n">
         <v>0.576</v>
@@ -16218,7 +16218,7 @@
         <v>0.05308715004703213</v>
       </c>
       <c r="AO54" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP54" t="n">
         <v>1</v>
@@ -16510,7 +16510,7 @@
         <v>0.1841972052249299</v>
       </c>
       <c r="AO55" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AP55" t="n">
         <v>0.783</v>
@@ -16802,7 +16802,7 @@
         <v>0.1497541722830461</v>
       </c>
       <c r="AO56" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP56" t="n">
         <v>0.7</v>
@@ -17094,7 +17094,7 @@
         <v>0.1059745347698335</v>
       </c>
       <c r="AO57" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP57" t="n">
         <v>0.736</v>
@@ -17678,7 +17678,7 @@
         <v>0.03102762773828803</v>
       </c>
       <c r="AO59" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP59" t="n">
         <v>0.578</v>
@@ -18554,7 +18554,7 @@
         <v>0.02182678600866943</v>
       </c>
       <c r="AO62" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP62" t="n">
         <v>0.708</v>
